--- a/biology/Botanique/Noyer_du_Japon/Noyer_du_Japon.xlsx
+++ b/biology/Botanique/Noyer_du_Japon/Noyer_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juglans ailantifolia
-Le noyer du Japon (Juglans ailantifolia, synonymes : J. cordiformis et J. sieboldiana[1]) est une espèce de noyer originaire du Japon.
+Le noyer du Japon (Juglans ailantifolia, synonymes : J. cordiformis et J. sieboldiana) est une espèce de noyer originaire du Japon.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un feuillu à feuilles caduques qui peut atteindre une hauteur de 25 m. Son écorce gris-brun se fissure en petites plaques avec l'âge. Son port est largement étalé. Il pousse dans les zones humides et aux bords des rivières.
 Les feuilles du noyer du Japon sont vert foncé dessus, et velues des deux côtés, mais surtout dessous. Elles sont dentées, et font environ 15 cm de long. Le rachis, robuste et velu, est à feuilles pennées, de 11 à 17 folioles. Les feuilles poussent à l'extrémité des jeunes rameaux, de la fin du printemps au début de l'été.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois est utilisé entre autres pour les dorures. 
 Les noix sont brunes aux pores peu profonds, et sont comestibles. Elles font environ 5 cm de long, et poussent par groupe de 20.
@@ -578,7 +594,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Juglans ailantifolia var. ailantifolia
 synonymes : Juglans sieboldiana Maxim., Juglans cordiformis var. ailantifolia
